--- a/doc/tables/Convergence_Francis_and_MI_NCA.xlsx
+++ b/doc/tables/Convergence_Francis_and_MI_NCA.xlsx
@@ -109,7 +109,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -145,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
